--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/101.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/101.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2015242131580496</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.515041189250592</v>
+        <v>-2.481070437317755</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1194849473735441</v>
+        <v>0.1278414705656693</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2839037798934096</v>
+        <v>-0.256951385187913</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.194587947751034</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.623442391129024</v>
+        <v>-2.587376561671558</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06257080934347586</v>
+        <v>0.06962698165277414</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3059682702954474</v>
+        <v>-0.2779558334537626</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1982072475192565</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.739685953069083</v>
+        <v>-2.721159002592184</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06490558569406743</v>
+        <v>0.080271927224058</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3175427349780953</v>
+        <v>-0.2893711088397792</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2142731523785432</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.898608104443911</v>
+        <v>-2.881804179878825</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02577063539120504</v>
+        <v>0.04324791238342064</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3249740085035936</v>
+        <v>-0.2961717243855201</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2372114250521782</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.976877700089297</v>
+        <v>-2.96412334385748</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07447463119156772</v>
+        <v>0.08978851954335795</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3156105062741575</v>
+        <v>-0.2907910041752487</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2551636482741754</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.87450159961612</v>
+        <v>-2.850979398796655</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1291948845473732</v>
+        <v>0.1510422431884887</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3210369705351849</v>
+        <v>-0.2909721506162429</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2545367574264426</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.692213387115075</v>
+        <v>-2.667503060817304</v>
       </c>
       <c r="F8" t="n">
-        <v>0.169481365087936</v>
+        <v>0.1856424332597292</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3611538931276117</v>
+        <v>-0.3221763023593503</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2292148707092754</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.482800782277689</v>
+        <v>-2.466035892635916</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1862395456022656</v>
+        <v>0.2046042571791496</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3668188363732476</v>
+        <v>-0.3352652000823636</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1777343015153745</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.072280252537521</v>
+        <v>-2.058030675766656</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2219388127330062</v>
+        <v>0.2460587358156849</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3285554627174582</v>
+        <v>-0.29841867215866</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1024300590905804</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.706572424680062</v>
+        <v>-1.691031645836522</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2116525005196502</v>
+        <v>0.231090062566934</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2851663156942781</v>
+        <v>-0.2676097490140853</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.007863214649352921</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.285008061246016</v>
+        <v>-1.258743657063891</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1409236591612384</v>
+        <v>0.1586778401406976</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.239830911791595</v>
+        <v>-0.2212600470259701</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.09724171853398945</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7830714006334948</v>
+        <v>-0.7524064187686327</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07132012145142676</v>
+        <v>0.08368870285520062</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2023982500975365</v>
+        <v>-0.1866470486205178</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1999054726630514</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.377058184694494</v>
+        <v>-0.3393187329000312</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08411023404901809</v>
+        <v>-0.06686899635870398</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1552031980514485</v>
+        <v>-0.1331905509069343</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2957397324014668</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06486899045346255</v>
+        <v>0.1108972642449315</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2942047302030076</v>
+        <v>-0.288911838570188</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08853764824153224</v>
+        <v>-0.06074600268483023</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3875329078208543</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5412121596282818</v>
+        <v>0.5776494307778876</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4129349387421683</v>
+        <v>-0.407674982825893</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0181686600824018</v>
+        <v>0.001578741668670072</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4827701833959179</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9429711788469648</v>
+        <v>0.9728981566929618</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5664056191082216</v>
+        <v>-0.5802502085497259</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02918253165693368</v>
+        <v>0.04511914901968368</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5844546077571536</v>
       </c>
       <c r="E18" t="n">
-        <v>1.37779216819013</v>
+        <v>1.409998419605134</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7814788977465056</v>
+        <v>-0.7999790117136277</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09333398843729442</v>
+        <v>0.1087186275875874</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6921138661756018</v>
       </c>
       <c r="E19" t="n">
-        <v>1.708584476986469</v>
+        <v>1.733894355309483</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9544084873835289</v>
+        <v>-0.9876461146629144</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2007587073122531</v>
+        <v>0.2147258908097836</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8024284032196183</v>
       </c>
       <c r="E20" t="n">
-        <v>2.031432568968165</v>
+        <v>2.039143796084291</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.117714138662145</v>
+        <v>-1.155525561096464</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2912477587559485</v>
+        <v>0.3129889911993097</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.911057802236344</v>
       </c>
       <c r="E21" t="n">
-        <v>2.263587286079455</v>
+        <v>2.259359315948238</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.369133810269199</v>
+        <v>-1.420711142377722</v>
       </c>
       <c r="G21" t="n">
-        <v>0.360185873007428</v>
+        <v>0.3821344784808836</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.01426977645218</v>
       </c>
       <c r="E22" t="n">
-        <v>2.519231878214343</v>
+        <v>2.517848578119479</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.643400500506559</v>
+        <v>-1.69880996422709</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4763769817692865</v>
+        <v>0.4957200061116744</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.106439089062468</v>
       </c>
       <c r="E23" t="n">
-        <v>2.70233006537411</v>
+        <v>2.696145469711885</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.927520459276783</v>
+        <v>-1.973561541402464</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6048634814537092</v>
+        <v>0.6263131718135848</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.183895765384866</v>
       </c>
       <c r="E24" t="n">
-        <v>2.825598693668953</v>
+        <v>2.81026650769686</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.212916982023442</v>
+        <v>-2.265869075337354</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7145290488950402</v>
+        <v>0.7296270253272616</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.242268475808585</v>
       </c>
       <c r="E25" t="n">
-        <v>2.953399032592035</v>
+        <v>2.929147366643178</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.461967721722006</v>
+        <v>-2.512513068045471</v>
       </c>
       <c r="G25" t="n">
-        <v>0.816484609061599</v>
+        <v>0.8341100967782644</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.279437374880046</v>
       </c>
       <c r="E26" t="n">
-        <v>3.01294314858024</v>
+        <v>2.984423257735501</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.691200918791673</v>
+        <v>-2.730253529803174</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9193099161132007</v>
+        <v>0.9370397002655899</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.294221947701744</v>
       </c>
       <c r="E27" t="n">
-        <v>3.006334048126998</v>
+        <v>2.982419058391707</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.903405130566534</v>
+        <v>-2.936549439982377</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9731872590937404</v>
+        <v>0.9846257114654734</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.28700976453645</v>
       </c>
       <c r="E28" t="n">
-        <v>3.014026367702145</v>
+        <v>2.98319121796847</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.125307995982705</v>
+        <v>-3.151744092835334</v>
       </c>
       <c r="G28" t="n">
-        <v>1.021305731044425</v>
+        <v>1.027001780244575</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.258832645285684</v>
       </c>
       <c r="E29" t="n">
-        <v>3.007799077592547</v>
+        <v>2.97729816438973</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.278674379913034</v>
+        <v>-3.308669363914488</v>
       </c>
       <c r="G29" t="n">
-        <v>1.098862024458354</v>
+        <v>1.10582670866614</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.212164229655112</v>
       </c>
       <c r="E30" t="n">
-        <v>2.90670960478697</v>
+        <v>2.889400055980861</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.340799680205238</v>
+        <v>-3.36670819567248</v>
       </c>
       <c r="G30" t="n">
-        <v>1.093713684025924</v>
+        <v>1.095861214728754</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.149813620832703</v>
       </c>
       <c r="E31" t="n">
-        <v>2.846445782400202</v>
+        <v>2.826415987375796</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.41683818601508</v>
+        <v>-3.440423513624589</v>
       </c>
       <c r="G31" t="n">
-        <v>1.138856352994755</v>
+        <v>1.132479022398677</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.07604624970646</v>
       </c>
       <c r="E32" t="n">
-        <v>2.771801250297067</v>
+        <v>2.753706123659306</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.457744955883895</v>
+        <v>-3.471810031650044</v>
       </c>
       <c r="G32" t="n">
-        <v>1.092849426426972</v>
+        <v>1.094133309451527</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9950455700503756</v>
       </c>
       <c r="E33" t="n">
-        <v>2.594657108783715</v>
+        <v>2.572015633421474</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.425635986816832</v>
+        <v>-3.441152063872964</v>
       </c>
       <c r="G33" t="n">
-        <v>1.062013056851944</v>
+        <v>1.062068559633528</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9101027973234558</v>
       </c>
       <c r="E34" t="n">
-        <v>2.541115832096064</v>
+        <v>2.508954714811138</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.252821977148052</v>
+        <v>-3.25960063554943</v>
       </c>
       <c r="G34" t="n">
-        <v>1.009933760026457</v>
+        <v>1.005556969250113</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8243766022410984</v>
       </c>
       <c r="E35" t="n">
-        <v>2.419685504720939</v>
+        <v>2.382830437907761</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.088977155991191</v>
+        <v>-3.099433331113022</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9786003050998794</v>
+        <v>0.9740783532024693</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7396331944335401</v>
       </c>
       <c r="E36" t="n">
-        <v>2.295839891465893</v>
+        <v>2.265954998146591</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.00231718655612</v>
+        <v>-3.028990847512343</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8876098988598971</v>
+        <v>0.8899538240206398</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6588013459927538</v>
       </c>
       <c r="E37" t="n">
-        <v>2.165574253167396</v>
+        <v>2.130703868236356</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.814005397451511</v>
+        <v>-2.84004962026933</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7799930549717627</v>
+        <v>0.7822314638554281</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5820783301669826</v>
       </c>
       <c r="E38" t="n">
-        <v>2.032759756360769</v>
+        <v>2.002235056251559</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.640504922061051</v>
+        <v>-2.675385065722919</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7161959621045927</v>
+        <v>0.7120289840410499</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.511173762730209</v>
       </c>
       <c r="E39" t="n">
-        <v>1.872686684668918</v>
+        <v>1.848564321903532</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.439115823726287</v>
+        <v>-2.473573902279845</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6448230445115349</v>
+        <v>0.6465881549500437</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4455197621889088</v>
       </c>
       <c r="E40" t="n">
-        <v>1.776965123739401</v>
+        <v>1.757683091464688</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.294985468603953</v>
+        <v>-2.343612614399046</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5596622600999106</v>
+        <v>0.5652576723883973</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3853440475804679</v>
       </c>
       <c r="E41" t="n">
-        <v>1.672261261003415</v>
+        <v>1.647808931151909</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.208575566646349</v>
+        <v>-2.256290881029703</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4843956089064932</v>
+        <v>0.4913273573977349</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3302790170423822</v>
       </c>
       <c r="E42" t="n">
-        <v>1.474351760129499</v>
+        <v>1.457859505030231</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.12859971790776</v>
+        <v>-2.174911604813917</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4534201774171663</v>
+        <v>0.4635509598579516</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2788052409836088</v>
       </c>
       <c r="E43" t="n">
-        <v>1.335134316058371</v>
+        <v>1.324882769323589</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.026309921210343</v>
+        <v>-2.078771028379474</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4238018194336039</v>
+        <v>0.4369700068445945</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.230441267195772</v>
       </c>
       <c r="E44" t="n">
-        <v>1.163894206695939</v>
+        <v>1.152827196016346</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.969556192318259</v>
+        <v>-2.026364204150573</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4040098934731294</v>
+        <v>0.4161924490704951</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1831638680498032</v>
       </c>
       <c r="E45" t="n">
-        <v>1.084300778221671</v>
+        <v>1.085538307274793</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.922947883963203</v>
+        <v>-1.978113379413035</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3592880697712548</v>
+        <v>0.384193570685585</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1370554086634878</v>
       </c>
       <c r="E46" t="n">
-        <v>0.962291636124313</v>
+        <v>0.964039668783873</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.899638545459923</v>
+        <v>-1.95502605203609</v>
       </c>
       <c r="G46" t="n">
-        <v>0.318181245920466</v>
+        <v>0.3419041106425817</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.09135478047555953</v>
       </c>
       <c r="E47" t="n">
-        <v>0.823900024649502</v>
+        <v>0.8375610279673049</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.886716766002338</v>
+        <v>-1.940949082816745</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2831821677266322</v>
+        <v>0.3054265847283106</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.04678300046736388</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7344990716931251</v>
+        <v>0.7506308636724345</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.940419061748651</v>
+        <v>-1.994824596035255</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2616342801378</v>
+        <v>0.283557878863509</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.003531655625745271</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7121290110320366</v>
+        <v>0.7243207154395536</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.890656853574131</v>
+        <v>-1.949443448081815</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2481721109606169</v>
+        <v>0.2687618131662778</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.03778689825347093</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6614750988281104</v>
+        <v>0.6638909946287095</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.887292531121188</v>
+        <v>-1.941947522964582</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1994766540497287</v>
+        <v>0.2244638843347431</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.07676547374476513</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5899027371737561</v>
+        <v>0.593274988595496</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.949116530599079</v>
+        <v>-1.995884028250766</v>
       </c>
       <c r="G51" t="n">
-        <v>0.179346222113659</v>
+        <v>0.1943996743364779</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1136985995549399</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4780664620438786</v>
+        <v>0.4840070894354047</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.904583172386319</v>
+        <v>-1.949400143713766</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1183023111813297</v>
+        <v>0.1380234863433014</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1478972589361872</v>
       </c>
       <c r="E53" t="n">
-        <v>0.435700151995605</v>
+        <v>0.449048875926913</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.912827470173923</v>
+        <v>-1.957486472046092</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1245838842311579</v>
+        <v>0.1462269194455627</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1798971916909773</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3239706129841585</v>
+        <v>0.3438711048250942</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.866024597122983</v>
+        <v>-1.9063122975049</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09059971404343287</v>
+        <v>0.1087430244146573</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.209182787844635</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3006100411440312</v>
+        <v>0.3158635473488233</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.880284542545353</v>
+        <v>-1.917603758993537</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1063850710783494</v>
+        <v>0.1243527242946704</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2362646427899921</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2646619263771774</v>
+        <v>0.2809742548768042</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.833643908394429</v>
+        <v>-1.866027646726367</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07602078010712404</v>
+        <v>0.09209340978078887</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2611165981540801</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2546378800548231</v>
+        <v>0.2719169328270956</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.838883127007695</v>
+        <v>-1.860907972565744</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05271693088993424</v>
+        <v>0.06640233103480717</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2839346819061579</v>
       </c>
       <c r="E58" t="n">
-        <v>0.19444053902182</v>
+        <v>0.2166294532419143</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.838299432920047</v>
+        <v>-1.851558498511873</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02604692945777191</v>
+        <v>0.03967255737632353</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.304941658701486</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1657126652263097</v>
+        <v>0.1913476312700306</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.874962374720049</v>
+        <v>-1.882449151027132</v>
       </c>
       <c r="G59" t="n">
-        <v>0.003456077511700594</v>
+        <v>0.01853087695820559</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3243915748596544</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1604923541540231</v>
+        <v>0.1832167787283022</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.811484880287495</v>
+        <v>-1.817115058054557</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.00172153911321367</v>
+        <v>0.009274720767877068</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3428062264120965</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1296267083865109</v>
+        <v>0.1525938813901357</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.837211334432729</v>
+        <v>-1.845536141749663</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.0214353952270644</v>
+        <v>-0.009090600729683707</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3604768666764933</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1493491033898361</v>
+        <v>0.1773584906281371</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.784502599468838</v>
+        <v>-1.795975817319146</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.04408784916148727</v>
+        <v>-0.03645530181266207</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3777845935777266</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09790961335425834</v>
+        <v>0.1254597303229681</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.82221033538811</v>
+        <v>-1.841055664458272</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.07267117175660825</v>
+        <v>-0.05782448264320703</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3941181271149125</v>
       </c>
       <c r="E64" t="n">
-        <v>0.104296702681164</v>
+        <v>0.1238391710848485</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.788324362429341</v>
+        <v>-1.805568649723039</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.04859394312130192</v>
+        <v>-0.03922129208171451</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4088350477692954</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1007963679173069</v>
+        <v>0.1206248891183863</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.802070754641889</v>
+        <v>-1.828826754889473</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.08931163758032552</v>
+        <v>-0.07562867711815958</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4205236714694546</v>
       </c>
       <c r="E66" t="n">
-        <v>0.09795413756366095</v>
+        <v>0.1165036551055996</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.821550401215869</v>
+        <v>-1.843787499169426</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.08087887430360688</v>
+        <v>-0.06753563965838962</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4286015736512465</v>
       </c>
       <c r="E67" t="n">
-        <v>0.107059033426156</v>
+        <v>0.1251736775255733</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.781979357629131</v>
+        <v>-1.803730958723997</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.09860133940787519</v>
+        <v>-0.08534471349875615</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4325920256357412</v>
       </c>
       <c r="E68" t="n">
-        <v>0.01600275575308489</v>
+        <v>0.04225313175964456</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.81571711986345</v>
+        <v>-1.836225092698427</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1395007902285697</v>
+        <v>-0.1214087131941921</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4325181579533234</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.01005305555759214</v>
+        <v>0.01832960313487874</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.835466961297229</v>
+        <v>-1.857167329055248</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1435006500266835</v>
+        <v>-0.1211812127817651</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4284925672304242</v>
       </c>
       <c r="E70" t="n">
-        <v>0.06261716331490871</v>
+        <v>0.08886570955943814</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.778818748682223</v>
+        <v>-1.794507738250213</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1365475543117556</v>
+        <v>-0.1169953271772431</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4207866490363748</v>
       </c>
       <c r="E71" t="n">
-        <v>0.07067116585136682</v>
+        <v>0.09929474321115318</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.762296607469795</v>
+        <v>-1.777612325583615</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1790986703250839</v>
+        <v>-0.1621142092396807</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4099484099658239</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1244740985093433</v>
+        <v>0.1539210687827395</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.717965133001039</v>
+        <v>-1.728955903596039</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1746175831130159</v>
+        <v>-0.1569384223767967</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3965314585308357</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1588364195166521</v>
+        <v>0.1863371329105453</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.675567716998251</v>
+        <v>-1.689708117967978</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1543499190246779</v>
+        <v>-0.1363444507263985</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.38067613496986</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2564188484309274</v>
+        <v>0.2843080812959091</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.598432268851278</v>
+        <v>-1.613147825019178</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1827960094675306</v>
+        <v>-0.1609767071775456</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3620737531558864</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3529290367954796</v>
+        <v>0.3832762499877559</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.538607589351768</v>
+        <v>-1.556658801700803</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.160389963486514</v>
+        <v>-0.1434298992281807</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3410091385991527</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4616614256013861</v>
+        <v>0.4836582148083048</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.535475646676667</v>
+        <v>-1.552433881172969</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1752256740277337</v>
+        <v>-0.15731291367232</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3173897787715491</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5829764779686051</v>
+        <v>0.6112652088768568</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.454702021692891</v>
+        <v>-1.475114236981618</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1988777879513466</v>
+        <v>-0.1797964195792837</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2914099666814921</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7620418696137139</v>
+        <v>0.783185379793862</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.41275716683225</v>
+        <v>-1.427525176178351</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2005892253703017</v>
+        <v>-0.1770353086756452</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2624986383867233</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9636560286781984</v>
+        <v>0.9906724650547537</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.359803853676984</v>
+        <v>-1.366950904167118</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1811839891188855</v>
+        <v>-0.1565657608433036</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2307492629821375</v>
       </c>
       <c r="E80" t="n">
-        <v>1.14061841382988</v>
+        <v>1.158070684074349</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.336056592127798</v>
+        <v>-1.336422544533847</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1894166984136308</v>
+        <v>-0.1642489316082989</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1965469675060554</v>
       </c>
       <c r="E81" t="n">
-        <v>1.307908066969014</v>
+        <v>1.333294795297298</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.284847042187355</v>
+        <v>-1.283520464715427</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1218893306874695</v>
+        <v>-0.1046602914106904</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1600491669337555</v>
       </c>
       <c r="E82" t="n">
-        <v>1.540177449167533</v>
+        <v>1.567953236786639</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.307346406031914</v>
+        <v>-1.300081030930491</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.08881821175283634</v>
+        <v>-0.07199598956744815</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1218395188007572</v>
       </c>
       <c r="E83" t="n">
-        <v>1.745254737834593</v>
+        <v>1.754900023416686</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.226649631053408</v>
+        <v>-1.216249263673501</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.07332683648411242</v>
+        <v>-0.05643630318292845</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.08256391311789719</v>
       </c>
       <c r="E84" t="n">
-        <v>1.960742762533065</v>
+        <v>1.965735573192925</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.138251387689605</v>
+        <v>-1.129293482710207</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09247651597197119</v>
+        <v>-0.07549571441062851</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.0433042317605411</v>
       </c>
       <c r="E85" t="n">
-        <v>2.073486599629944</v>
+        <v>2.073768992903278</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.0641490750681</v>
+        <v>-1.0473140445485</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.06163221742814515</v>
+        <v>-0.04721735215388156</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.004841529472361982</v>
       </c>
       <c r="E86" t="n">
-        <v>2.181529778071125</v>
+        <v>2.178972990594197</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.004579342411471</v>
+        <v>-0.9799153700851327</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06640545664437546</v>
+        <v>-0.05293230889501086</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.03147700807898247</v>
       </c>
       <c r="E87" t="n">
-        <v>2.31193447828392</v>
+        <v>2.305299761162255</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8625336961622619</v>
+        <v>-0.8477772753090195</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.06483125137768872</v>
+        <v>-0.05275238229537018</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.06431808326590206</v>
       </c>
       <c r="E88" t="n">
-        <v>2.402763865465241</v>
+        <v>2.392644061596637</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7857343143081768</v>
+        <v>-0.7758596985516257</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.04955212850447312</v>
+        <v>-0.03597773392276835</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.09246662776053961</v>
       </c>
       <c r="E89" t="n">
-        <v>2.436407089994664</v>
+        <v>2.419634271384092</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7336824639131441</v>
+        <v>-0.7287475957175755</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.04736861248171507</v>
+        <v>-0.03022252241697367</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1145995835058854</v>
       </c>
       <c r="E90" t="n">
-        <v>2.444085991314922</v>
+        <v>2.438584506810654</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.651798783297687</v>
+        <v>-0.6486717199879997</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05292255016418289</v>
+        <v>-0.0400410254712639</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1299555899905424</v>
       </c>
       <c r="E91" t="n">
-        <v>2.387802511264611</v>
+        <v>2.381228786210621</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5083283623475948</v>
+        <v>-0.5038155592603359</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04378715826785048</v>
+        <v>-0.027369923411823</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.137358066472782</v>
       </c>
       <c r="E92" t="n">
-        <v>2.33343784166335</v>
+        <v>2.315334176136114</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4296449355230348</v>
+        <v>-0.4288630172154438</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04012763420736213</v>
+        <v>-0.02155615952106051</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1355422677198642</v>
       </c>
       <c r="E93" t="n">
-        <v>2.236856902500295</v>
+        <v>2.234960049195609</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3428013799642626</v>
+        <v>-0.3397658047560875</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03863210870797589</v>
+        <v>-0.02072178803526917</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1242768230276547</v>
       </c>
       <c r="E94" t="n">
-        <v>2.130267165031804</v>
+        <v>2.121520902527237</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2590934266046522</v>
+        <v>-0.2552368981655742</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08659078144135243</v>
+        <v>-0.07560854973582691</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1039806559146412</v>
       </c>
       <c r="E95" t="n">
-        <v>1.977066069604874</v>
+        <v>1.975662642127676</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1839237527988378</v>
+        <v>-0.1779544591355045</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.09254787669115072</v>
+        <v>-0.08375952965988795</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.07722366487757754</v>
       </c>
       <c r="E96" t="n">
-        <v>1.804798243902122</v>
+        <v>1.812416763075382</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.07488823341658744</v>
+        <v>-0.06958497313226308</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.08071785524494539</v>
+        <v>-0.0743698008413516</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.04798247923390993</v>
       </c>
       <c r="E97" t="n">
-        <v>1.670553483108521</v>
+        <v>1.681941312064084</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.007188258138906513</v>
+        <v>0.00174585993409904</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.08694331559251281</v>
+        <v>-0.07755602645668346</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.02058357698349583</v>
       </c>
       <c r="E98" t="n">
-        <v>1.504242142734891</v>
+        <v>1.506392723041104</v>
       </c>
       <c r="F98" t="n">
-        <v>0.03280485055614039</v>
+        <v>0.03800930369083157</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1094066941171438</v>
+        <v>-0.1001243113377151</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.0008391034971240342</v>
       </c>
       <c r="E99" t="n">
-        <v>1.413912890508503</v>
+        <v>1.416365991470384</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07736809488206051</v>
+        <v>0.08716891023672504</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1003634002430003</v>
+        <v>-0.0896769800656976</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.01596437672088844</v>
       </c>
       <c r="E100" t="n">
-        <v>1.270815741012581</v>
+        <v>1.27843060066178</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1201906255965416</v>
+        <v>0.1304757179685442</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1326099064226701</v>
+        <v>-0.1189611015184021</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.02479192869075662</v>
       </c>
       <c r="E101" t="n">
-        <v>1.189937209672405</v>
+        <v>1.200674863186554</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1506714114170258</v>
+        <v>0.1526853694916479</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1749353517856016</v>
+        <v>-0.1679596890056341</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.03232321170780225</v>
       </c>
       <c r="E102" t="n">
-        <v>1.111844186062937</v>
+        <v>1.111085444741062</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1691623765739967</v>
+        <v>0.1730798970807495</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1808058382993017</v>
+        <v>-0.1690886521782947</v>
       </c>
     </row>
   </sheetData>
